--- a/data/trans_dic/P34_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P34_R-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.4364336484100863</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4570676566033662</v>
+        <v>0.4570676566033661</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3421895163677394</v>
+        <v>0.3403493021774244</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3149418102848581</v>
+        <v>0.3155315695257654</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4134432103413226</v>
+        <v>0.4202707123632127</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3687619236610009</v>
+        <v>0.3731490740024334</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2840603435754986</v>
+        <v>0.2818434661043226</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3247071566203367</v>
+        <v>0.3278836297976448</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3947940825016106</v>
+        <v>0.3933772723643009</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.46476276105395</v>
+        <v>0.4625788631411392</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.317407641384383</v>
+        <v>0.3179775791781851</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.331102170128285</v>
+        <v>0.331325007162175</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4138281950960176</v>
+        <v>0.4121215508808398</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4344412555643953</v>
+        <v>0.4341121838394157</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3997256470474997</v>
+        <v>0.4028402438311044</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3778514705070836</v>
+        <v>0.3783260327117988</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4874568958531191</v>
+        <v>0.4895465170143357</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4485530537343345</v>
+        <v>0.4496373472804604</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3347295619557747</v>
+        <v>0.3332808668069817</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3815470078188254</v>
+        <v>0.3832101567993904</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4558328165837218</v>
+        <v>0.4597825267044951</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5172233457461805</v>
+        <v>0.5195908209686598</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3567064856392124</v>
+        <v>0.3557198762406502</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3735663175725222</v>
+        <v>0.3722415839208911</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4641275839850553</v>
+        <v>0.4603565582182127</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4796755061165839</v>
+        <v>0.4800278314077352</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.3107439417810158</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2960042591285043</v>
+        <v>0.2960042591285044</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2650814695570187</v>
@@ -821,7 +821,7 @@
         <v>0.2499718332391148</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2594583991658182</v>
+        <v>0.2594583991658181</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3124951297656047</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3355820802308985</v>
+        <v>0.3342560012065254</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.262142961199699</v>
+        <v>0.2644077455169052</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.290002807770752</v>
+        <v>0.2900056676103804</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2748906506891985</v>
+        <v>0.2745294769806725</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2432348426771865</v>
+        <v>0.2409290578125733</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2133486123748722</v>
+        <v>0.2121436192017427</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2305170360608838</v>
+        <v>0.2296925342253595</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2401393179011483</v>
+        <v>0.2431287523234549</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2955849535989728</v>
+        <v>0.2946346263007412</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2440997126857012</v>
+        <v>0.2449862298318205</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2647015299498001</v>
+        <v>0.2660885625079106</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2645092827094608</v>
+        <v>0.2638854746586681</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3813865381330005</v>
+        <v>0.3799637219772238</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3074402203075791</v>
+        <v>0.3046705859062278</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3314415589277153</v>
+        <v>0.3326702808991652</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3185865598873517</v>
+        <v>0.3204897915717935</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2857998368319495</v>
+        <v>0.2875460393331729</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2534668275878325</v>
+        <v>0.256517531043903</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2704368545788031</v>
+        <v>0.2694451598199734</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2772012525945747</v>
+        <v>0.2788962800248492</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3288391249688924</v>
+        <v>0.327705690363753</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.274702898558751</v>
+        <v>0.2733724760542328</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2941920197445922</v>
+        <v>0.2969961129543273</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2940139892804077</v>
+        <v>0.2914841629590437</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.4029042755106835</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.464828318452003</v>
+        <v>0.4648283184520029</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4702324585500716</v>
+        <v>0.4749984276253749</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3457431432543066</v>
+        <v>0.3455262356022651</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4192095258300789</v>
+        <v>0.4228748303660894</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4581083168314777</v>
+        <v>0.4529795784268097</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4315640151761516</v>
+        <v>0.4349461625409168</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2954921893495696</v>
+        <v>0.3000043597423163</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3019791103176523</v>
+        <v>0.3035648922997587</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4004607616224238</v>
+        <v>0.4011953559260519</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4657208568330936</v>
+        <v>0.4665253258535713</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3327064179635191</v>
+        <v>0.3355393604653062</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3735821925892896</v>
+        <v>0.3747430324545373</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4384477140191269</v>
+        <v>0.4393850582487013</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5578334266788721</v>
+        <v>0.5583788466401669</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4421712177087859</v>
+        <v>0.438547291015772</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.510258909349863</v>
+        <v>0.512179544420363</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5376861948913313</v>
+        <v>0.5393418539184459</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5267963842484434</v>
+        <v>0.5249307484894271</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3904678381052613</v>
+        <v>0.3870543933963774</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3861309282474221</v>
+        <v>0.3875562000962258</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4675542664656668</v>
+        <v>0.4637884204508452</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5318296599824026</v>
+        <v>0.5296290335757672</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4022183595516791</v>
+        <v>0.4037936851865964</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4339163594152012</v>
+        <v>0.4372615118558836</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4902987827852932</v>
+        <v>0.4901538703849218</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.3671958196323027</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3553730734498425</v>
+        <v>0.3553730734498426</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3125807779298274</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3693203380989286</v>
+        <v>0.3717388337818524</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2994621987950414</v>
+        <v>0.3001878486943845</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.350717778936564</v>
+        <v>0.3500241595925053</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3372573296937155</v>
+        <v>0.3373729338210539</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2974546558524602</v>
+        <v>0.2973140839825996</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2761153911964797</v>
+        <v>0.2783235232719518</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2964505130001289</v>
+        <v>0.2982972778220486</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3302827626022817</v>
+        <v>0.3313147265741095</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3383829094224306</v>
+        <v>0.3364755464362655</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2933660875814365</v>
+        <v>0.2946474023530102</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3281409020754722</v>
+        <v>0.3284017874410387</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3383442213972522</v>
+        <v>0.3377499995481182</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4046164673415439</v>
+        <v>0.4066347531794666</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3332953525222606</v>
+        <v>0.3336218695273565</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3827901715700577</v>
+        <v>0.3839208672074937</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3722161335985837</v>
+        <v>0.3736794038660938</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3283892909791853</v>
+        <v>0.3279646088152955</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3074791738321643</v>
+        <v>0.3102427910254602</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3311009519734109</v>
+        <v>0.3290361185648523</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3587909203307052</v>
+        <v>0.3601862636341497</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3606263779104635</v>
+        <v>0.3608071005435427</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3159348754037993</v>
+        <v>0.316221176682612</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.351602006276846</v>
+        <v>0.3524385242399465</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3608328417357373</v>
+        <v>0.3605892859003176</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>348568</v>
+        <v>346694</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>305230</v>
+        <v>305801</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>310372</v>
+        <v>315497</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>212005</v>
+        <v>214527</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>370323</v>
+        <v>367433</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>431326</v>
+        <v>435545</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>390547</v>
+        <v>389146</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>378795</v>
+        <v>377015</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>737121</v>
+        <v>738445</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>760713</v>
+        <v>761225</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>720037</v>
+        <v>717068</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>603846</v>
+        <v>603389</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>407177</v>
+        <v>410350</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>366199</v>
+        <v>366659</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>365934</v>
+        <v>367503</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>257878</v>
+        <v>258501</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>436379</v>
+        <v>434491</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>506829</v>
+        <v>509038</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>450929</v>
+        <v>454837</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>421552</v>
+        <v>423481</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>828386</v>
+        <v>826095</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>858275</v>
+        <v>855231</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>807556</v>
+        <v>800994</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>666719</v>
+        <v>667209</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>562941</v>
+        <v>560717</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>511100</v>
+        <v>515516</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>597632</v>
+        <v>597638</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>607191</v>
+        <v>606393</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>383131</v>
+        <v>379499</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>372805</v>
+        <v>370699</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>456917</v>
+        <v>455283</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>518632</v>
+        <v>525088</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>961437</v>
+        <v>958346</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>902461</v>
+        <v>905738</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1070167</v>
+        <v>1075775</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1155524</v>
+        <v>1152798</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>639779</v>
+        <v>637392</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>599417</v>
+        <v>594017</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>683028</v>
+        <v>685561</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>703709</v>
+        <v>707913</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>450178</v>
+        <v>452928</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>442907</v>
+        <v>448238</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>536044</v>
+        <v>534078</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>598675</v>
+        <v>602335</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1069601</v>
+        <v>1065915</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1015604</v>
+        <v>1010685</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1189395</v>
+        <v>1200732</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1284417</v>
+        <v>1273365</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>257228</v>
+        <v>259835</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>164981</v>
+        <v>164877</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>226762</v>
+        <v>228744</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>323354</v>
+        <v>319734</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>204716</v>
+        <v>206321</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>133778</v>
+        <v>135821</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>164533</v>
+        <v>165397</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>293282</v>
+        <v>293820</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>475679</v>
+        <v>476501</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>309386</v>
+        <v>312021</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>405626</v>
+        <v>406887</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>630579</v>
+        <v>631927</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>305148</v>
+        <v>305446</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>210994</v>
+        <v>209265</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>276013</v>
+        <v>277052</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>379524</v>
+        <v>380693</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>249891</v>
+        <v>249006</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>176777</v>
+        <v>175232</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>210383</v>
+        <v>211159</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>342419</v>
+        <v>339661</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>543201</v>
+        <v>540954</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>374026</v>
+        <v>375491</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>471136</v>
+        <v>474768</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>705152</v>
+        <v>704943</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1197769</v>
+        <v>1205613</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1016986</v>
+        <v>1019450</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1175749</v>
+        <v>1173424</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1176894</v>
+        <v>1177298</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>997421</v>
+        <v>996949</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>974268</v>
+        <v>982059</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1042389</v>
+        <v>1048882</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1224391</v>
+        <v>1228217</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2232094</v>
+        <v>2219513</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>2031420</v>
+        <v>2040292</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2253882</v>
+        <v>2255674</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>2434963</v>
+        <v>2430686</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1312240</v>
+        <v>1318786</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1131885</v>
+        <v>1132994</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1283269</v>
+        <v>1287059</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1298887</v>
+        <v>1303993</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1101150</v>
+        <v>1099726</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1084934</v>
+        <v>1094686</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1164228</v>
+        <v>1156967</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1330074</v>
+        <v>1335246</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>2378820</v>
+        <v>2380012</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>2187698</v>
+        <v>2189680</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>2415028</v>
+        <v>2420773</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>2596807</v>
+        <v>2595054</v>
       </c>
     </row>
     <row r="20">
